--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC6\Desktop\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC6\Desktop\github\Data-Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C7187E4-996B-4383-A239-5B59E7C3566C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D04E8A-1577-4B41-9769-9E23CD22A51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93913589-A05A-459E-8889-858889B7BD49}"/>
   </bookViews>
@@ -92,15 +92,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,19 +108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,21 +168,147 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -200,6 +319,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83AC3938-0C2A-4FD2-B3BF-6EF958EFAEE2}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D11" xr:uid="{83AC3938-0C2A-4FD2-B3BF-6EF958EFAEE2}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{FB6FAA4A-6D48-4FAF-9F49-64ED79063B3E}" name="SR.NO" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9BB22554-FA44-4EF7-86B5-914392E2E0B0}" name="NAME" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A74C00B7-6FFF-46EB-BE09-7BE966F6157C}" name="AGE" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{6FF4AA4D-BDAA-46C9-9BCB-09771816948B}" name="SALARY" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,191 +634,193 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <f ca="1">RANDBETWEEN(20,30)</f>
-        <v>24</v>
-      </c>
-      <c r="D2" s="2">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1">
         <f ca="1">RANDBETWEEN(30000,50000)</f>
-        <v>42691</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <f t="shared" ref="C3:C10" ca="1" si="0">RANDBETWEEN(20,30)</f>
-        <v>28</v>
-      </c>
-      <c r="D3" s="2">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D10" ca="1" si="1">RANDBETWEEN(30000,50000)</f>
-        <v>41703</v>
+        <v>43060</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D4" s="2">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40761</v>
+        <v>40072</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>20</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>37451</v>
+        <v>47454</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D6" s="2">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47591</v>
+        <v>41628</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>40045</v>
+        <v>33003</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>33351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38811</v>
+        <v>38334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>48551</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="3">
         <f ca="1">SUM(C2:C10)</f>
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D11" s="3">
         <f ca="1">SUM(D2:D10)</f>
-        <v>358704</v>
+        <v>381623</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A11:B11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>